--- a/internal/xlsxparser/test/example_with_errors.xlsx
+++ b/internal/xlsxparser/test/example_with_errors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiller\Desktop\Golag\test-tasks\MerchantExperience\internal\xslx-parser\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiller\Desktop\Golag\test-tasks\MerchantExperience\internal\xlsxparser\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t xml:space="preserve"> head</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve"> big melon</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t xml:space="preserve"> name2_1</t>
@@ -427,7 +424,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -494,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -531,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -551,7 +548,7 @@
         <v>-666</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -585,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -602,7 +599,7 @@
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -619,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -644,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -653,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -670,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -704,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -729,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -746,7 +743,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>71</v>
@@ -763,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>1</v>
